--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>943322.5085614967</v>
+        <v>977058.6119641531</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673262</v>
+        <v>6542240.186367739</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10060574.0993342</v>
+        <v>8956565.669985874</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.36057463500366</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>30.4379771472379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>76.45026453085336</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>88.07608327545817</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>156.6534722152509</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.28184589708156</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539882</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398515</v>
       </c>
       <c r="T5" t="n">
-        <v>121.7681242420007</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>287.3759209339587</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.7151277509819</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>72.3088134999077</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>116.5676572668628</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>76.60691003872054</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13.9617115804236</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>266.9741815915498</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.0251683486365</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>110.3838034696614</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>266.3723613156455</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>74.9599735335152</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>144.5080517679368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.066814522152</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.596724502525226</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>324.4823532639331</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>99.16981644935794</v>
+        <v>244.1831094673592</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>89.72280177868512</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>84.36427925043559</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>25.23055120993124</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2052,25 +2052,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>165.6040273698186</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>173.6076827274344</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>179.6989004166827</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>12.98811655122873</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>97.90411925715578</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>233.2527770079821</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>162.6159201417021</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>140.1918165590947</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>33.4831007742745</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>319.8437519518834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>275.2598897337236</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>24.01006515217614</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>175.805486188284</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>378.0268225284314</v>
+        <v>148.615183167112</v>
       </c>
     </row>
     <row r="30">
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>130.3899231758519</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.113188524212235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>4.264715073021632</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>11.26664236074106</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>69.96969900783357</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>126.5660981224325</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>166.3544833279764</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.96969900783357</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.4154947474644</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>168.1158122680971</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>142.0975176632396</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>7.601081015447462</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>116.9402131039062</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>299.8265913752305</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>251.2852794514161</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>10.92497404422854</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>270.380862279625</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>179.74352911093</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>195.0465954186442</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>38.26221019674269</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432.4256445709457</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C2" t="n">
-        <v>432.4256445709457</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>432.4256445709457</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>166.0479880037678</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757742</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052545</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358418</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709457</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709457</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="W2" t="n">
-        <v>432.4256445709457</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="X2" t="n">
-        <v>432.4256445709457</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="Y2" t="n">
-        <v>432.4256445709457</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>357.6145548405475</v>
+        <v>326.869123378691</v>
       </c>
       <c r="C3" t="n">
-        <v>357.6145548405475</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D3" t="n">
         <v>326.869123378691</v>
@@ -4397,37 +4397,37 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004806</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4445,16 +4445,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742819</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460803</v>
+        <v>742.4809223491777</v>
       </c>
       <c r="X3" t="n">
-        <v>357.6145548405475</v>
+        <v>534.6294221436449</v>
       </c>
       <c r="Y3" t="n">
-        <v>357.6145548405475</v>
+        <v>326.869123378691</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>668.6301385875518</v>
+        <v>381.3603623666214</v>
       </c>
       <c r="C4" t="n">
-        <v>499.6939556596449</v>
+        <v>381.3603623666214</v>
       </c>
       <c r="D4" t="n">
-        <v>499.6939556596449</v>
+        <v>381.3603623666214</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7808620772518</v>
+        <v>233.4472687842283</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>233.4472687842283</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434485</v>
+        <v>233.4472687842283</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434485</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>896.6196894855691</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="V4" t="n">
-        <v>896.6196894855691</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="W4" t="n">
-        <v>896.6196894855691</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="X4" t="n">
-        <v>668.6301385875518</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="Y4" t="n">
-        <v>668.6301385875518</v>
+        <v>563.0088271968611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1570.273714272918</v>
+        <v>497.7905447109597</v>
       </c>
       <c r="C5" t="n">
-        <v>1201.311197332507</v>
+        <v>128.828027770548</v>
       </c>
       <c r="D5" t="n">
-        <v>843.0454987257563</v>
+        <v>128.828027770548</v>
       </c>
       <c r="E5" t="n">
-        <v>457.257246127512</v>
+        <v>128.828027770548</v>
       </c>
       <c r="F5" t="n">
-        <v>46.2713413379044</v>
+        <v>128.828027770548</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135737</v>
+        <v>128.828027770548</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135737</v>
+        <v>128.828027770548</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780279</v>
+        <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818696</v>
+        <v>270.9975490818682</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373992</v>
+        <v>509.5409587373967</v>
       </c>
       <c r="M5" t="n">
-        <v>806.635901817649</v>
+        <v>806.6359018176456</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.15196005897</v>
+        <v>1113.151960058966</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836698</v>
+        <v>1389.251120836693</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.39436592169</v>
+        <v>1590.394365921684</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567869</v>
+        <v>1551.674342961951</v>
       </c>
       <c r="T5" t="n">
-        <v>1570.273714272918</v>
+        <v>1551.674342961951</v>
       </c>
       <c r="U5" t="n">
-        <v>1570.273714272918</v>
+        <v>1551.674342961951</v>
       </c>
       <c r="V5" t="n">
-        <v>1570.273714272918</v>
+        <v>1261.395634947851</v>
       </c>
       <c r="W5" t="n">
-        <v>1570.273714272918</v>
+        <v>1261.395634947851</v>
       </c>
       <c r="X5" t="n">
-        <v>1570.273714272918</v>
+        <v>887.9298766867714</v>
       </c>
       <c r="Y5" t="n">
-        <v>1570.273714272918</v>
+        <v>497.7905447109597</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>391.9390112728539</v>
+        <v>208.3184656724843</v>
       </c>
       <c r="C6" t="n">
-        <v>217.4859819917268</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="D6" t="n">
-        <v>217.4859819917268</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="E6" t="n">
-        <v>217.4859819917268</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="F6" t="n">
-        <v>70.95142401861182</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="J6" t="n">
-        <v>184.3059916402493</v>
+        <v>59.47586665324411</v>
       </c>
       <c r="K6" t="n">
-        <v>306.2331208520548</v>
+        <v>181.402995865049</v>
       </c>
       <c r="L6" t="n">
-        <v>516.50173397479</v>
+        <v>391.6716089877835</v>
       </c>
       <c r="M6" t="n">
-        <v>781.2321559315315</v>
+        <v>656.4020309445242</v>
       </c>
       <c r="N6" t="n">
-        <v>1067.37784934326</v>
+        <v>942.5477243562516</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.925460517457</v>
+        <v>1182.095335530449</v>
       </c>
       <c r="P6" t="n">
-        <v>1479.850471131926</v>
+        <v>1601.180110873494</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.078019232575</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567869</v>
+        <v>1550.180157843107</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567869</v>
+        <v>1354.574272178446</v>
       </c>
       <c r="U6" t="n">
-        <v>1465.155612223353</v>
+        <v>1281.535066622983</v>
       </c>
       <c r="V6" t="n">
-        <v>1230.00350399161</v>
+        <v>1046.382958391241</v>
       </c>
       <c r="W6" t="n">
-        <v>975.7661472634086</v>
+        <v>792.1456016630391</v>
       </c>
       <c r="X6" t="n">
-        <v>767.9146470578758</v>
+        <v>584.2941014575063</v>
       </c>
       <c r="Y6" t="n">
-        <v>560.1543482929219</v>
+        <v>376.5338026925523</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.0404022124168</v>
+        <v>617.9593801369658</v>
       </c>
       <c r="C7" t="n">
-        <v>647.1042192845099</v>
+        <v>617.9593801369658</v>
       </c>
       <c r="D7" t="n">
-        <v>496.9875798721741</v>
+        <v>467.8427407246301</v>
       </c>
       <c r="E7" t="n">
-        <v>349.074486289781</v>
+        <v>319.9296471422369</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1845387918706</v>
+        <v>202.1845387918705</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135723</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652207</v>
+        <v>36.28512133652175</v>
       </c>
       <c r="K7" t="n">
-        <v>170.09824371286</v>
+        <v>170.0982437128594</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119591</v>
+        <v>396.8594047119581</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191543</v>
+        <v>646.3363778191529</v>
       </c>
       <c r="N7" t="n">
-        <v>895.315962536166</v>
+        <v>895.3159625361642</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021382</v>
+        <v>1109.272612021379</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580467</v>
+        <v>1268.828805580465</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="R7" t="n">
-        <v>1218.481446186187</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="S7" t="n">
-        <v>1218.481446186187</v>
+        <v>1093.436447486383</v>
       </c>
       <c r="T7" t="n">
-        <v>1218.481446186187</v>
+        <v>1093.436447486383</v>
       </c>
       <c r="U7" t="n">
-        <v>1218.481446186187</v>
+        <v>1093.436447486383</v>
       </c>
       <c r="V7" t="n">
-        <v>1218.481446186187</v>
+        <v>838.751959280496</v>
       </c>
       <c r="W7" t="n">
-        <v>1218.481446186187</v>
+        <v>838.751959280496</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.481446186187</v>
+        <v>838.751959280496</v>
       </c>
       <c r="Y7" t="n">
-        <v>997.6888670426565</v>
+        <v>617.9593801369658</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>736.6224273402293</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C8" t="n">
-        <v>736.6224273402293</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D8" t="n">
-        <v>736.6224273402293</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E8" t="n">
-        <v>736.6224273402293</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577121</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.761759316041</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>736.6224273402293</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429757</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744474</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>194.7065525767269</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>194.7065525767269</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>194.7065525767269</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>194.7065525767269</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>194.7065525767269</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>194.7065525767269</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4962,16 +4962,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1524.947328691001</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W10" t="n">
-        <v>1235.53015865404</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>376.3550174069666</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1712.341567565138</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C11" t="n">
-        <v>1712.341567565138</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D11" t="n">
-        <v>1354.075868958387</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E11" t="n">
-        <v>968.2876163601431</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>557.3017115705356</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>142.2292614155321</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5074,19 +5074,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.546497866151</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.080739605071</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y11" t="n">
-        <v>2098.94140762926</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="12">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.2355044562291</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C13" t="n">
-        <v>530.2993215283223</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D13" t="n">
-        <v>380.1826821159865</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E13" t="n">
-        <v>380.1826821159865</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
         <v>234.2149530574645</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1792.883624328743</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.778206672847</v>
+        <v>1503.780757454386</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.09371846696</v>
+        <v>1249.096269248499</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.676548429999</v>
+        <v>959.6790992115388</v>
       </c>
       <c r="X13" t="n">
-        <v>1101.676548429999</v>
+        <v>731.6895483135214</v>
       </c>
       <c r="Y13" t="n">
-        <v>880.8839692864689</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>1190.127582679363</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>3118.015220960539</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V14" t="n">
-        <v>2786.952333616968</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W14" t="n">
-        <v>2434.183678346854</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.183678346854</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y14" t="n">
-        <v>2434.183678346854</v>
+        <v>1576.727422743484</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>528.5554336401428</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C16" t="n">
-        <v>359.619250712236</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>359.619250712236</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V16" t="n">
-        <v>1259.157560278958</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W16" t="n">
-        <v>1158.98602851193</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="X16" t="n">
-        <v>930.9964776139127</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="Y16" t="n">
-        <v>710.2038984703826</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1675.730933054506</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1306.768416114094</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>948.502717507344</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>562.7144649090997</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>151.7285601194921</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5557,10 +5557,10 @@
         <v>2435.796531379708</v>
       </c>
       <c r="X17" t="n">
-        <v>2062.330773118628</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="Y17" t="n">
-        <v>2062.330773118628</v>
+        <v>2435.796531379708</v>
       </c>
     </row>
     <row r="18">
@@ -5606,16 +5606,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.5033994003247</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>529.0179941377679</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
         <v>529.0179941377679</v>
@@ -5700,25 +5700,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415546</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W19" t="n">
-        <v>782.4929502983421</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X19" t="n">
-        <v>554.5033994003247</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.5033994003247</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1032.061124352531</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C20" t="n">
-        <v>663.098607412119</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>663.098607412119</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392464</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y20" t="n">
-        <v>1418.660964416652</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>785.6801677492706</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C22" t="n">
-        <v>785.6801677492706</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D22" t="n">
         <v>772.5608581015648</v>
@@ -5910,16 +5910,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V22" t="n">
-        <v>1705.527932658018</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="W22" t="n">
-        <v>1416.110762621058</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="X22" t="n">
-        <v>1188.12121172304</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y22" t="n">
-        <v>967.3286325795103</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1754.744438482647</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C23" t="n">
-        <v>1519.135572818019</v>
+        <v>1442.617229168677</v>
       </c>
       <c r="D23" t="n">
-        <v>1160.869874211268</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,16 +5989,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6022,19 +6022,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792695</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.48361052258</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X23" t="n">
-        <v>2531.48361052258</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y23" t="n">
-        <v>2141.344278546769</v>
+        <v>2198.179586173211</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691.6489789975187</v>
+        <v>567.2993462682277</v>
       </c>
       <c r="C25" t="n">
-        <v>522.7127960696118</v>
+        <v>398.3631633403209</v>
       </c>
       <c r="D25" t="n">
-        <v>381.1049005553748</v>
+        <v>248.2465239279851</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>100.333430345592</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.507193008249</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W25" t="n">
-        <v>1094.090022971289</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X25" t="n">
-        <v>1094.090022971289</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="Y25" t="n">
-        <v>873.2974438277585</v>
+        <v>748.9478110984675</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1934.181533884357</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C26" t="n">
-        <v>1565.219016943946</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D26" t="n">
-        <v>1206.953318337195</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E26" t="n">
-        <v>821.1650657389509</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6247,7 +6247,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6259,19 +6259,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V26" t="n">
         <v>2630.721789066532</v>
       </c>
       <c r="W26" t="n">
-        <v>2630.721789066532</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="X26" t="n">
-        <v>2257.256030805452</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y26" t="n">
-        <v>2257.256030805452</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6417,19 +6417,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658019</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>1450.843444452132</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>1450.843444452132</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>1273.262145272047</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.798686923957</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.836169983545</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D29" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218342</v>
@@ -6475,7 +6475,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2388.243802269322</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2006.398526988078</v>
+        <v>1548.393281286113</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>846.3749096777597</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4387267498528</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>527.322087337517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
         <v>66.51211643218342</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V31" t="n">
-        <v>1259.157560278958</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W31" t="n">
-        <v>1259.157560278958</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X31" t="n">
-        <v>1031.168009380941</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y31" t="n">
-        <v>1028.023374507999</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1565.440264581602</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C32" t="n">
-        <v>1565.440264581602</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1207.174565974851</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>821.3863133766072</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>410.4004085869996</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
@@ -6733,19 +6733,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2325.505862906803</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X32" t="n">
-        <v>1952.040104645724</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y32" t="n">
-        <v>1952.040104645724</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="33">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>403.1511359853714</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C34" t="n">
         <v>234.2149530574645</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.683389100006</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.998900894119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.581730857159</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X34" t="n">
-        <v>805.5921799591413</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y34" t="n">
-        <v>584.7996008156111</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1544.306735920717</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C35" t="n">
-        <v>1175.344218980305</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D35" t="n">
-        <v>817.078520373555</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E35" t="n">
-        <v>817.078520373555</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6958,31 +6958,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3047.280321491845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2694.511666221731</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>2321.045907960651</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>1930.906575984839</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>532.4548862703364</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C37" t="n">
-        <v>363.5187033424295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D37" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1383.507193008249</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W37" t="n">
-        <v>1162.885481142124</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X37" t="n">
-        <v>934.8959302441062</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y37" t="n">
-        <v>714.1033511005761</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>651.3985183731436</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>236.3260682181401</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7183,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3071.782307011781</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2740.71941966821</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.71941966821</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.25366140713</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>521.2725633630544</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C40" t="n">
-        <v>352.3363804351475</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D40" t="n">
-        <v>352.3363804351475</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E40" t="n">
-        <v>352.3363804351475</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="F40" t="n">
-        <v>352.3363804351475</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>184.6335438098664</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>970.0546934046018</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>742.0651425065845</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>521.2725633630544</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1632.511388127729</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.548871187317</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D41" t="n">
-        <v>905.2831725805665</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E41" t="n">
-        <v>519.4949199823222</v>
+        <v>731.321535819181</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>320.3356310295734</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939509</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176918</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.505862906803</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X41" t="n">
-        <v>2325.505862906803</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y41" t="n">
-        <v>1935.366530930992</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.0764108006842</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>392.1402278727774</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>392.1402278727774</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218343</v>
@@ -7599,22 +7599,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.608663915319</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.924175709432</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.507005672471</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X43" t="n">
-        <v>963.5174547744541</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.724875630924</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2098.94140762926</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C44" t="n">
-        <v>1729.978890688848</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>1371.713192082098</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>3128.589058560035</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136266</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W44" t="n">
-        <v>2862.546497866152</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X44" t="n">
-        <v>2489.080739605072</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y44" t="n">
-        <v>2098.94140762926</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,31 +7745,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
         <v>1109.759191501176</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>718.3439163053883</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>549.4077333774815</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>399.2910939651457</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>251.3780003827526</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>251.3780003827526</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V46" t="n">
-        <v>1638.191681214136</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W46" t="n">
-        <v>1348.774511177176</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X46" t="n">
-        <v>1120.784960279158</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y46" t="n">
-        <v>899.9923811356281</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069115</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.3216690912726</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157936</v>
+        <v>25.82445471157973</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>248.6462269985629</v>
       </c>
       <c r="Q6" t="n">
-        <v>149.2371260211878</v>
+        <v>26.48617644860076</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688979</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>35.91627445172486</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>18.86898237295591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22640,13 +22640,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>175.2447186300662</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22707,28 +22707,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>64.30607606039861</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323769</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>40.37633753617621</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22868,22 +22868,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253653</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813375</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>153.5262317711628</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22953,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28.85339075606846</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>351.311180190584</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5.226340806492317</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23238,10 +23238,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>98.900530455362</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>219.6477908538052</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9129962549944537</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>86.48213475401721</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>249.3984474563767</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>61.75558539212045</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>187.3531818872331</v>
+        <v>42.33988886923183</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>293.0110398847954</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>326.5574464030179</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>142.0162698886966</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>120.9189709667724</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>191.6652090435732</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>202.231469655579</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>135.6273564669836</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>154.2335240666722</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>132.0201147630254</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>192.0671214789809</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24262,16 +24262,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>8.423656459117694</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>111.9379472486567</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.89008971159717</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>73.98107898368937</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>155.8219150297612</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>49.9041692007531</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.211116127622176</v>
+        <v>237.6227554889416</v>
       </c>
     </row>
     <row r="30">
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>95.31973221318526</v>
       </c>
       <c r="Y31" t="n">
-        <v>215.4714648278826</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>406.6570105804318</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.974326356672</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>97.27712209079426</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,16 +25125,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>159.6457400831803</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -25213,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>161.3977751421585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.27712209079426</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,19 +25362,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>68.10750358912659</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192234</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>108.8976542956624</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>137.8199670074838</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>27.81480181041459</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.90725028825011</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>159.6364462020373</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>135.5089886023406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>202.1868409613318</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>55.94857654025782</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696642</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>127.7635980622855</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>997775.9188553481</v>
+        <v>502045.5898912777</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>999417.5811904183</v>
+        <v>608075.8670319414</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1002108.037848812</v>
+        <v>751189.8271980124</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>826932.2530403824</v>
+        <v>826932.2530403823</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>826932.2530403825</v>
+        <v>826932.2530403823</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>826932.2530403825</v>
+        <v>826932.2530403824</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>826932.2530403825</v>
+        <v>826932.2530403823</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>826932.2530403824</v>
+        <v>826932.2530403823</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>826932.2530403823</v>
+        <v>826932.2530403824</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>826932.2530403825</v>
+        <v>826932.2530403823</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253557</v>
+        <v>224363.2393168237</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>272208.0211027206</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253558</v>
+        <v>336568.7935437395</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680128</v>
       </c>
       <c r="F2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="G2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="H2" t="n">
         <v>375096.8088680127</v>
@@ -26337,25 +26337,25 @@
         <v>375096.8088680127</v>
       </c>
       <c r="J2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680129</v>
       </c>
       <c r="K2" t="n">
         <v>375096.8088680128</v>
       </c>
       <c r="L2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="M2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="N2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="O2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="P2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680126</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739506</v>
+        <v>176672.6241739487</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819071</v>
+        <v>223886.3093819089</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171903</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911411</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640816</v>
+        <v>41076.98154640767</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946808</v>
+        <v>54988.29121946856</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865468</v>
+        <v>12754.47490881741</v>
       </c>
       <c r="C4" t="n">
-        <v>200657.5583474227</v>
+        <v>14520.08689902884</v>
       </c>
       <c r="D4" t="n">
-        <v>136726.2736921025</v>
+        <v>17379.72927547096</v>
       </c>
       <c r="E4" t="n">
         <v>9160.459137079182</v>
       </c>
       <c r="F4" t="n">
+        <v>9160.459137079182</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9160.459137079182</v>
+      </c>
+      <c r="H4" t="n">
         <v>9160.459137079168</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9160.459137079168</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9160.459137079182</v>
       </c>
       <c r="I4" t="n">
         <v>9160.459137079168</v>
@@ -26459,7 +26459,7 @@
         <v>9160.459137079168</v>
       </c>
       <c r="P4" t="n">
-        <v>9160.459137079168</v>
+        <v>9160.459137079186</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923118</v>
+        <v>75746.87167923104</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-540106.0770566502</v>
+        <v>-532559.7909061281</v>
       </c>
       <c r="C6" t="n">
-        <v>-1504.080775248527</v>
+        <v>4453.143112681933</v>
       </c>
       <c r="D6" t="n">
-        <v>-1977.38208849846</v>
+        <v>1842.23617432585</v>
       </c>
       <c r="E6" t="n">
-        <v>106080.8400542888</v>
+        <v>109209.4104225438</v>
       </c>
       <c r="F6" t="n">
-        <v>288153.8198714791</v>
+        <v>291282.3902397341</v>
       </c>
       <c r="G6" t="n">
-        <v>288153.8198714793</v>
+        <v>291282.390239734</v>
       </c>
       <c r="H6" t="n">
-        <v>288153.8198714791</v>
+        <v>291282.3902397339</v>
       </c>
       <c r="I6" t="n">
-        <v>288153.8198714789</v>
+        <v>291282.3902397341</v>
       </c>
       <c r="J6" t="n">
-        <v>219154.6654523652</v>
+        <v>222283.2358206201</v>
       </c>
       <c r="K6" t="n">
-        <v>247076.8383250711</v>
+        <v>250205.4086933265</v>
       </c>
       <c r="L6" t="n">
-        <v>233165.5286520111</v>
+        <v>236294.0990202655</v>
       </c>
       <c r="M6" t="n">
-        <v>240601.5540780644</v>
+        <v>243730.1244463192</v>
       </c>
       <c r="N6" t="n">
-        <v>288153.8198714791</v>
+        <v>291282.3902397341</v>
       </c>
       <c r="O6" t="n">
-        <v>288153.8198714791</v>
+        <v>291282.3902397341</v>
       </c>
       <c r="P6" t="n">
-        <v>288153.8198714792</v>
+        <v>291282.390239734</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908065</v>
+        <v>751.446789990805</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919671</v>
+        <v>423.3179548919654</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26801,7 +26801,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26810,10 +26810,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022928</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213283</v>
+        <v>137.3917762213268</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267329</v>
+        <v>182.6181021267342</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.604074890461</v>
+        <v>159.6040748904592</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080716</v>
+        <v>217.2668772080735</v>
       </c>
       <c r="E4" t="n">
         <v>190.8166233022538</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.604074890461</v>
+        <v>159.6040748904591</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080717</v>
+        <v>217.2668772080736</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.604074890461</v>
+        <v>159.6040748904592</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080716</v>
+        <v>217.2668772080735</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022538</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>391.5154711067078</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.0070884174009</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>129.6051582874266</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>88.10377226410154</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>99.01206990168245</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813365</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.75769735001407</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>139.9018641501617</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>141.7538398541666</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053491</v>
+        <v>3.020891618053485</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339032</v>
+        <v>30.93770628339026</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050073</v>
+        <v>116.4629241050071</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677677</v>
+        <v>256.3943999677672</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599721</v>
+        <v>384.2687421599713</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159767</v>
+        <v>476.7193540159757</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285354</v>
+        <v>530.4421353285344</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383299</v>
+        <v>539.0252436383289</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113105</v>
+        <v>508.9862526113095</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906149</v>
+        <v>434.4079907906141</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190741</v>
+        <v>326.2223097190735</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025528</v>
+        <v>189.7610831025524</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639399</v>
+        <v>68.83856774639386</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802916</v>
+        <v>13.22395305802914</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442792</v>
+        <v>0.2416713294442787</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546263</v>
+        <v>1.61631951054626</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395996</v>
+        <v>15.61024369395993</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328143</v>
+        <v>55.64959718328132</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433204</v>
+        <v>152.7067481433201</v>
       </c>
       <c r="K6" t="n">
-        <v>261.00015534992</v>
+        <v>261.0001553499195</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876875</v>
+        <v>350.9469182876869</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449895</v>
+        <v>409.5385005449887</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345739</v>
+        <v>420.3777660345731</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587856</v>
+        <v>384.5635284587849</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077333</v>
+        <v>308.6461353077327</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970984</v>
+        <v>206.321767697098</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633079</v>
+        <v>30.02242599633073</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807084</v>
+        <v>6.514901886807071</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1063368099043592</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950634</v>
+        <v>1.355067981950632</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952474</v>
+        <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720636</v>
+        <v>40.75058985720629</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390985</v>
+        <v>95.80330632390967</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029919</v>
+        <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165516</v>
+        <v>201.4616525165512</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706799</v>
+        <v>212.4130655706795</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379549</v>
+        <v>207.3623576379545</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488043</v>
+        <v>191.5326998488039</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170112</v>
+        <v>163.8893130170109</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886118</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843487</v>
+        <v>60.92878398843475</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544878</v>
+        <v>23.61513928544873</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879982</v>
+        <v>5.789835922879971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548924</v>
+        <v>0.0739127990154891</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>125.938547087769</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108141</v>
+        <v>75.3484954410809</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149915</v>
+        <v>164.1788911149907</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459895</v>
+        <v>240.9529390459885</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012627</v>
+        <v>300.0959021012617</v>
       </c>
       <c r="N5" t="n">
-        <v>309.612180041739</v>
+        <v>309.612180041738</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896238</v>
+        <v>278.8880411896228</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353454</v>
+        <v>203.1749950353445</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446246</v>
+        <v>103.916619844624</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.9601568170626</v>
+        <v>25.86912147665342</v>
       </c>
       <c r="K6" t="n">
-        <v>123.158716375561</v>
+        <v>123.1587163755605</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078134</v>
+        <v>212.3925385078127</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229711</v>
+        <v>267.4044666229703</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512405</v>
+        <v>289.0360539512398</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143412</v>
+        <v>241.9672840143405</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934031</v>
+        <v>423.3179548919654</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.5771196322647</v>
+        <v>92.82617005967725</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1957579144308284</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237076</v>
+        <v>2.444126207236891</v>
       </c>
       <c r="K7" t="n">
-        <v>135.164770077109</v>
+        <v>135.1647700771087</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768678</v>
+        <v>229.0516777768674</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325205</v>
+        <v>251.9969425325201</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171835</v>
+        <v>251.4945300171831</v>
       </c>
       <c r="O7" t="n">
-        <v>216.117827762844</v>
+        <v>216.1178277628436</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819047</v>
+        <v>161.1678722819044</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691738</v>
+        <v>27.30642203691717</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>285.5958035752572</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
